--- a/BTC_Transaction_LIVE.xlsx
+++ b/BTC_Transaction_LIVE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,132 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>op</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>hash</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>lock_time</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ver</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>size</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>tx_index</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>vin_sz</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>vout_sz</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>relayed_by</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>inputs.sequence</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>in_spent</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>in_tx_index</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>in_type</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>in_addr</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>in_value</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>in_n</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>in_script</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>inputs.script</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>out_spent</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>out_tx_index</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>out_type</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>out_addr</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>out_value</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>out_n</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>out_script</t>
+          <t>sum(out_value)</t>
         </is>
       </c>
     </row>
@@ -569,194 +444,8 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>utx</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>54dfcd8be2dc171a567e7b34993b861506cd0b433bf84909713aeee927be3f73</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" t="n">
-        <v>193</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1678194297</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0.0.0.0</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>4294967295</v>
-      </c>
-      <c r="M2" t="b">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>bc1q6knqqygj0e9kc53yy47mue4uds0jsp2nel2z5x</t>
-        </is>
-      </c>
-      <c r="Q2" t="n">
-        <v>115996</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0014d5a60011127e4b6c5224257dbe66bc6c1f280553</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="b">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>37VnD1C3QoeQmf32AbFK1obY4wXHbCcsPS</t>
-        </is>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.00115774</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>a9143fb0babaf1a2a1a45860a04f306068b6db1f17fe87</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>utx</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>7de605e542baa7bbb09e006003e990de7cdf65903e36bc016de43f6d57c097b2</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>188</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1678194297</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0.0.0.0</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>4294967295</v>
-      </c>
-      <c r="M3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>18jLMs743zACAc7giGqETX5LmYv1z8oydf</t>
-        </is>
-      </c>
-      <c r="Q3" t="n">
-        <v>231000</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>76a91454ca82f5d456ad0be1da918843aeec412713ddc788ac</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>47304402205058e06e4f83e0428f4f130ac0c83315a36753fa4b70885a40dfcaa4bbc6ae1402200af0ae1b7000be860f28d9f0f2162873056783735810cca5686dde132bccb8cf0121035a9e9753a147f7a01c68c8e26d7e1b579fbf9d561eeafe58bb43ef78287dc038</t>
-        </is>
-      </c>
-      <c r="U3" t="b">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>bc1q3j0ny5dzl5n6pr97a8ml53p7hpyj5s958hx6ty</t>
-        </is>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.00227836</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>00148c9f3251a2fd27a08cbee9f7fa443eb8492a40b4</t>
-        </is>
+      <c r="B2" t="n">
+        <v>12920.41649658</v>
       </c>
     </row>
   </sheetData>

--- a/BTC_Transaction_LIVE.xlsx
+++ b/BTC_Transaction_LIVE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,22 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>summary</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>sum(in_value)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>sum(out_value)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>trans_fees_2</t>
         </is>
       </c>
     </row>
@@ -444,9 +459,78 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>12920.41649658</v>
-      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>stddev</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/BTC_Transaction_LIVE.xlsx
+++ b/BTC_Transaction_LIVE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,22 +436,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>summary</t>
+          <t>avg(trans_fees_2)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>sum(in_value)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>sum(out_value)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>trans_fees_2</t>
+          <t>sum(sum(out_value))</t>
         </is>
       </c>
     </row>
@@ -459,78 +449,12 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
+      <c r="B2" t="n">
+        <v>17.38577946768061</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C2" t="n">
+        <v>317394649438</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>stddev</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/BTC_Transaction_LIVE.xlsx
+++ b/BTC_Transaction_LIVE.xlsx
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17.38577946768061</v>
+        <v>16.83409812409812</v>
       </c>
       <c r="C2" t="n">
-        <v>317394649438</v>
+        <v>114911569152</v>
       </c>
     </row>
   </sheetData>

--- a/BTC_Transaction_LIVE.xlsx
+++ b/BTC_Transaction_LIVE.xlsx
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>83.80255797359975</v>
+        <v>35.77720375888149</v>
       </c>
       <c r="C2" t="n">
-        <v>1532479293066</v>
+        <v>277814641172</v>
       </c>
     </row>
   </sheetData>
